--- a/jsonToExcel/JH/JH-2-output.xlsx
+++ b/jsonToExcel/JH/JH-2-output.xlsx
@@ -397,196 +397,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>店铺ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>SPU系统</v>
+      </c>
+      <c r="C1" t="str">
         <v>SKC系统</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>SKU系统</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>条码编码</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>SKC货号</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>SKU货号</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>中文颜色</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>尺码</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>英文颜色</v>
+      </c>
+      <c r="K1" t="str">
+        <v>缩略图</v>
+      </c>
+      <c r="L1" t="str">
+        <v>类目标签</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>13369888554</v>
+        <v>634418224534130</v>
       </c>
       <c r="B2">
-        <v>85306212777</v>
+        <v>6073858200</v>
       </c>
       <c r="C2">
-        <v>72292199877</v>
-      </c>
-      <c r="D2" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E2" t="str">
-        <v/>
+        <v>11209536785</v>
+      </c>
+      <c r="D2">
+        <v>54420235075</v>
+      </c>
+      <c r="E2">
+        <v>88470399342</v>
       </c>
       <c r="F2" t="str">
-        <v>黑湖蓝</v>
+        <v>8585</v>
       </c>
       <c r="G2" t="str">
-        <v>26</v>
+        <v>8585-JH-White-30</v>
       </c>
       <c r="H2" t="str">
-        <v>Black Lake Blue</v>
+        <v>白色</v>
+      </c>
+      <c r="I2" t="str">
+        <v>30</v>
+      </c>
+      <c r="J2" t="str">
+        <v>White</v>
+      </c>
+      <c r="K2" t="str">
+        <v>https://img.kwcdn.com/product/fancy/ebd7cb89-6d3e-482d-bd55-f08a5b4cece4.jpg</v>
+      </c>
+      <c r="L2" t="str">
+        <v>女童运动鞋</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>13369888554</v>
+        <v>634418224534130</v>
       </c>
       <c r="B3">
-        <v>85098390985</v>
+        <v>6073858200</v>
       </c>
       <c r="C3">
-        <v>20614838183</v>
-      </c>
-      <c r="D3" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E3" t="str">
-        <v>6201-JH-BlackOrange-27</v>
+        <v>11209536785</v>
+      </c>
+      <c r="D3">
+        <v>14199117140</v>
+      </c>
+      <c r="E3">
+        <v>24691311946</v>
       </c>
       <c r="F3" t="str">
-        <v>黑桔</v>
+        <v>8585</v>
       </c>
       <c r="G3" t="str">
-        <v>27</v>
+        <v>8585-JH-White-37</v>
       </c>
       <c r="H3" t="str">
-        <v>Black Orange</v>
+        <v>白色</v>
+      </c>
+      <c r="I3" t="str">
+        <v>37</v>
+      </c>
+      <c r="J3" t="str">
+        <v>White</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://img.kwcdn.com/product/fancy/ebd7cb89-6d3e-482d-bd55-f08a5b4cece4.jpg</v>
+      </c>
+      <c r="L3" t="str">
+        <v>女童运动鞋</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>13369888554</v>
+        <v>634418224534130</v>
       </c>
       <c r="B4">
-        <v>56621177346</v>
+        <v>6073858200</v>
       </c>
       <c r="C4">
-        <v>91877100176</v>
-      </c>
-      <c r="D4" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E4" t="str">
-        <v/>
+        <v>11209536785</v>
+      </c>
+      <c r="D4">
+        <v>84672090822</v>
+      </c>
+      <c r="E4">
+        <v>81054308104</v>
       </c>
       <c r="F4" t="str">
-        <v>粉红色</v>
+        <v>8585</v>
       </c>
       <c r="G4" t="str">
-        <v>37</v>
+        <v>8585-JH-White-35</v>
       </c>
       <c r="H4" t="str">
-        <v>Pink Color</v>
+        <v>白色</v>
+      </c>
+      <c r="I4" t="str">
+        <v>35</v>
+      </c>
+      <c r="J4" t="str">
+        <v>White</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://img.kwcdn.com/product/fancy/ebd7cb89-6d3e-482d-bd55-f08a5b4cece4.jpg</v>
+      </c>
+      <c r="L4" t="str">
+        <v>女童运动鞋</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>13369888554</v>
+        <v>634418224534130</v>
       </c>
       <c r="B5">
-        <v>60297629294</v>
+        <v>6073858200</v>
       </c>
       <c r="C5">
-        <v>42581789173</v>
-      </c>
-      <c r="D5" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E5" t="str">
-        <v>6201-JH-BlackOrange-31</v>
+        <v>11209536785</v>
+      </c>
+      <c r="D5">
+        <v>40620297371</v>
+      </c>
+      <c r="E5">
+        <v>78673095143</v>
       </c>
       <c r="F5" t="str">
-        <v>黑桔</v>
+        <v>8585</v>
       </c>
       <c r="G5" t="str">
-        <v>31</v>
+        <v>8585-JH-White-40</v>
       </c>
       <c r="H5" t="str">
-        <v>Black Orange</v>
+        <v>白色</v>
+      </c>
+      <c r="I5" t="str">
+        <v>40</v>
+      </c>
+      <c r="J5" t="str">
+        <v>White</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://img.kwcdn.com/product/fancy/ebd7cb89-6d3e-482d-bd55-f08a5b4cece4.jpg</v>
+      </c>
+      <c r="L5" t="str">
+        <v>女童运动鞋</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>13369888554</v>
+        <v>634418224534130</v>
       </c>
       <c r="B6">
-        <v>58030017185</v>
+        <v>6073858200</v>
       </c>
       <c r="C6">
-        <v>84352412815</v>
-      </c>
-      <c r="D6" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E6" t="str">
-        <v>6201-JH-DarkBlue-34</v>
+        <v>11209536785</v>
+      </c>
+      <c r="D6">
+        <v>35902095173</v>
+      </c>
+      <c r="E6">
+        <v>11263395132</v>
       </c>
       <c r="F6" t="str">
-        <v>深蓝</v>
+        <v>8585</v>
       </c>
       <c r="G6" t="str">
-        <v>34</v>
+        <v>8585-JH-White-38</v>
       </c>
       <c r="H6" t="str">
-        <v>Dark Blue</v>
+        <v>白色</v>
+      </c>
+      <c r="I6" t="str">
+        <v>38</v>
+      </c>
+      <c r="J6" t="str">
+        <v>White</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://img.kwcdn.com/product/fancy/ebd7cb89-6d3e-482d-bd55-f08a5b4cece4.jpg</v>
+      </c>
+      <c r="L6" t="str">
+        <v>女童运动鞋</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>13369888554</v>
+        <v>634418224534130</v>
       </c>
       <c r="B7">
-        <v>25531646427</v>
+        <v>7146341479</v>
       </c>
       <c r="C7">
-        <v>31196768807</v>
-      </c>
-      <c r="D7" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E7" t="str">
-        <v>6201-JH-BlackOrange-37</v>
+        <v>92390668726</v>
+      </c>
+      <c r="D7">
+        <v>11396833520</v>
+      </c>
+      <c r="E7">
+        <v>60516788158</v>
       </c>
       <c r="F7" t="str">
-        <v>黑桔</v>
+        <v>8575</v>
       </c>
       <c r="G7" t="str">
-        <v>37</v>
+        <v>8575-JH-DarkBlue-34</v>
       </c>
       <c r="H7" t="str">
-        <v>Black Orange</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I7" t="str">
+        <v>34</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4e9c2d2e-133e-4aab-b0f7-7e710b7908d1.jpg</v>
+      </c>
+      <c r="L7" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>